--- a/Data/lisbon_traffic_signs/ground_truth.xlsx
+++ b/Data/lisbon_traffic_signs/ground_truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippmetzger/Documents/GitHub/Deep_Learning_Project_Group_10/Data/lisbon_traffic_signs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358CEAC1-5DCE-B048-8750-15326BB6A95C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6B797-CA09-ED4C-AA1A-C4C298FE6C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="4500" windowWidth="28040" windowHeight="16940" xr2:uid="{B80F5D8C-84F7-F147-B533-2EA4C1F29423}"/>
+    <workbookView xWindow="35640" yWindow="2540" windowWidth="28040" windowHeight="16940" xr2:uid="{B80F5D8C-84F7-F147-B533-2EA4C1F29423}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/lisbon_traffic_signs/ground_truth.xlsx
+++ b/Data/lisbon_traffic_signs/ground_truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippmetzger/Documents/GitHub/Deep_Learning_Project_Group_10/Data/lisbon_traffic_signs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6B797-CA09-ED4C-AA1A-C4C298FE6C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833989DA-62FE-B14D-80C2-43143A8CDD1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35640" yWindow="2540" windowWidth="28040" windowHeight="16940" xr2:uid="{B80F5D8C-84F7-F147-B533-2EA4C1F29423}"/>
+    <workbookView xWindow="36060" yWindow="960" windowWidth="28040" windowHeight="16940" xr2:uid="{B80F5D8C-84F7-F147-B533-2EA4C1F29423}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A44488-06B8-0D43-A5D2-A37F2208A38B}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A27" sqref="A27:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,103 +609,103 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
         <v>28</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>42</v>
+      </c>
+      <c r="B33">
         <v>32</v>
-      </c>
-      <c r="B33">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B38">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>17</v>
@@ -713,47 +713,47 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>17</v>
@@ -761,87 +761,87 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B48">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>14</v>
@@ -849,31 +849,31 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>18</v>
@@ -881,95 +881,95 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B61">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B63">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B72">
         <v>17</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -985,79 +985,79 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B77">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B79">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B82">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>17</v>
@@ -1073,137 +1073,25 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B85">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B87">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>99</v>
-      </c>
-      <c r="B88">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>100</v>
-      </c>
-      <c r="B89">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>101</v>
-      </c>
-      <c r="B90">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>102</v>
-      </c>
-      <c r="B91">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>103</v>
-      </c>
-      <c r="B92">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>104</v>
-      </c>
-      <c r="B93">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>105</v>
-      </c>
-      <c r="B94">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>106</v>
-      </c>
-      <c r="B95">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>107</v>
-      </c>
-      <c r="B96">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>108</v>
-      </c>
-      <c r="B97">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>109</v>
-      </c>
-      <c r="B98">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>110</v>
-      </c>
-      <c r="B99">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>111</v>
-      </c>
-      <c r="B100">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>112</v>
-      </c>
-      <c r="B101">
         <v>1</v>
       </c>
     </row>
